--- a/biology/Médecine/Néphropathie_glomérulaire/Néphropathie_glomérulaire.xlsx
+++ b/biology/Médecine/Néphropathie_glomérulaire/Néphropathie_glomérulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9phropathie_glom%C3%A9rulaire</t>
+          <t>Néphropathie_glomérulaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les néphropathies glomérulaires ou glomérulopathie sont littéralement les « maladies des glomérules ». Le glomérule constitue la première barrière de filtration rénale entre le sang et l'urine primitive, il est composé d'une cellule endothéliale, d'une membrane basale et de podocytes. 
 Les néphropathies glomérulaires représentent environ 40 % des causes d'insuffisance rénale terminale. Il en existe plusieurs types, différentes sur plusieurs plans, à la fois sur leur présentation clinique, de leur évolution ainsi que sur le  leur physiopathologie.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9phropathie_glom%C3%A9rulaire</t>
+          <t>Néphropathie_glomérulaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,26 +529,135 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Signes rénaux
-Les deux signes suivants sont presque toujours présents (au moins un des deux pour évoquer une pathologie glomérulaire) :
+          <t>Signes rénaux</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les deux signes suivants sont presque toujours présents (au moins un des deux pour évoquer une pathologie glomérulaire) :
 La présence de protéines dans les urines ou protéinurie : il s'agit du signe essentiel de la glomérulopathie, protéinurie composée essentiellement d'albumine. Elle se compose principalement d'albumine, supérieure à 30 g/L (et parfois de gamma-globulines). Elle peut être associée à un syndrome néphrotique, qui  correspond à la diminution du taux de protéines sanguines (elles sont dans les urines) ainsi qu'une augmentation du taux de lipides sanguins.
 La présence du sang dans les urines ou hématurie : Elle peut être microscopique (plus de 10^4 globules rouges par mL d'urines) ou macroscopique (visible à l'œil nu). On retrouve dans l'urine des cylindres hématiques, ils sont la preuve de l'origine glomérulaire de l'hématurie.
 Les trois signes suivant sont fréquemment associés mais pas systématiques :
 Une hypertension artérielle ou HTA, secondaire à une prolifération endocapillaire, activant le système rénine-angiotensine-aldostérone.
 Une insuffisance rénale, aiguë ou chronique, d'origine parenchymateuse (atteinte glomérulaire), qui est dépistée par le taux de créatinine plasmatique puis estimée par le calcul de la clairance de la créatinine.
-Des œdèmes, secondaires à la perte protéique.
-Signes non rénaux
-Ils ne sont pas systématiques mais sont à rechercher en cas de suspicion d'atteinte glomérulaire car ils peuvent représenter des signes de gravité.
+Des œdèmes, secondaires à la perte protéique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Néphropathie_glomérulaire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9phropathie_glom%C3%A9rulaire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Signes non rénaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils ne sont pas systématiques mais sont à rechercher en cas de suspicion d'atteinte glomérulaire car ils peuvent représenter des signes de gravité.
 Les signes généraux tels qu'une altération de l'état général, un amaigrissement ou une fièvre.
 Les signes digestifs telles que des douleurs abdominales ou des diarrhées
 Les signes cutané (purpura)
 Les signes neurologiques (troubles de la conscience, confusion)
 Les signes pulmonaires (dyspnée)
 Les douleurs musculaires ou articulaires
-Réponse aux tests immunologiques
-Selon l'étiologie, certains anticorps vont voir leur taux sanguin augmenté.
-La biopsie rénale
-La biopsie rénale permet d'obtenir le diagnostic histologique de néphropathie glomérulaire. Celle-ci comporte quelques risques (hématomes, hématurie macroscopique, fistules artério-veineuses), mais permet, en plus de poser le diagnostic histologique, d'orienter vers une étiologie et d'établir un pronostic.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Néphropathie_glomérulaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9phropathie_glom%C3%A9rulaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Réponse aux tests immunologiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'étiologie, certains anticorps vont voir leur taux sanguin augmenté.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Néphropathie_glomérulaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9phropathie_glom%C3%A9rulaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La biopsie rénale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La biopsie rénale permet d'obtenir le diagnostic histologique de néphropathie glomérulaire. Celle-ci comporte quelques risques (hématomes, hématurie macroscopique, fistules artério-veineuses), mais permet, en plus de poser le diagnostic histologique, d'orienter vers une étiologie et d'établir un pronostic.
 Les pièces prélevées sont étudiées en microscopie optique et en microscopie avec immunofluorescence pour caractériser à la fois la localisation et la nature des lésions. On peut compléter l'analyse par une étude au microscope électronique.
 Les principaux diagnostics histologiques des glomérulopathies sont :
 les lésions glomérulaires minimes (LGM) ;
@@ -547,31 +668,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>N%C3%A9phropathie_glom%C3%A9rulaire</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Néphropathie_glomérulaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/N%C3%A9phropathie_glom%C3%A9rulaire</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Principale maladies pouvant provoquer une glomérulopathie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le diabète
 Les vascularites
@@ -584,36 +707,76 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>N%C3%A9phropathie_glom%C3%A9rulaire</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Néphropathie_glomérulaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/N%C3%A9phropathie_glom%C3%A9rulaire</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Traitement des néphropathies glomérulaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traitement étiologique quand cela est possible
-Corticothérapie, immunosuppresseurs, échanges plasmatiques...
-Traitement symptomatique
-Il a pour but de freiner la progression de l'insuffisance rénale associée : principalement le contrôle de la pression artérielle
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Traitement étiologique quand cela est possible</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corticothérapie, immunosuppresseurs, échanges plasmatiques...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Néphropathie_glomérulaire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9phropathie_glom%C3%A9rulaire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Traitement des néphropathies glomérulaires</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Traitement symptomatique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a pour but de freiner la progression de l'insuffisance rénale associée : principalement le contrôle de la pression artérielle
  Portail de la médecine                     </t>
         </is>
       </c>
